--- a/사이트맵.xlsx
+++ b/사이트맵.xlsx
@@ -257,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,13 +280,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,22 +383,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +702,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,47 +710,46 @@
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -663,19 +761,19 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -687,20 +785,20 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -711,18 +809,18 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -731,16 +829,16 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,74 +847,74 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
